--- a/results/power_result.xlsx
+++ b/results/power_result.xlsx
@@ -524,39 +524,93 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>光伏装机</t>
+          <t>负荷</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+        <v>7300</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5816.666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>139600</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7300</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7300</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7300</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7300</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7300</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7300</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,92 +618,92 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>新能源出力</t>
+          <t>线潮L1-0</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>116</v>
+        <v>3933.329826515573</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1584.223486837609</v>
       </c>
       <c r="E3" t="n">
-        <v>23.45833333333333</v>
+        <v>2388.306814757295</v>
       </c>
       <c r="F3" t="n">
-        <v>563</v>
+        <v>57319.36355417509</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1965.272282811579</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1740.617386161687</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1740.617386161687</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>1688.801631113897</v>
       </c>
       <c r="K3" t="n">
-        <v>75</v>
+        <v>1584.223486837609</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
+        <v>1688.82069485905</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1740.369448442776</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>1700.328206428062</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2341.929215168867</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>2341.224678305317</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>2363.416434870951</v>
       </c>
       <c r="R3" t="n">
-        <v>22</v>
+        <v>2507.719829969709</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3455.377941565553</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3933.329826515573</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3426.286142622091</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3048.283544458035</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>3108.410710007037</v>
       </c>
       <c r="X3" t="n">
-        <v>72</v>
+        <v>3322.276134887462</v>
       </c>
       <c r="Y3" t="n">
-        <v>116</v>
+        <v>2864.855559424234</v>
       </c>
       <c r="Z3" t="n">
-        <v>57</v>
+        <v>2323.976742519248</v>
       </c>
       <c r="AA3" t="n">
-        <v>54</v>
+        <v>2301.43345880208</v>
       </c>
       <c r="AB3" t="n">
-        <v>67</v>
+        <v>2249.366091159379</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>1917.15443827163</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1965.272282811579</v>
       </c>
     </row>
     <row r="4">
@@ -658,92 +712,92 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>新能源弃电</t>
+          <t>线潮L2-0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6671.916377064831</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3390.249337705422</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4594.322296677216</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>110263.7351202532</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3765.80574482213</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3390.249337705422</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3390.249337705422</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3422.563577191529</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3659.229805090431</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3421.043608333913</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3390.497578948704</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3418.540244386181</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4559.612774418073</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4582.833618826698</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4659.728781975728</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4615.944680558543</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5502.082636744964</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5474.073103916473</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5681.322754500565</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>6660.038720151549</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>6671.916377064831</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>6052.567052508494</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6219.013726945145</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>4714.185066419313</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>4699.217625582192</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>4731.782725080174</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3815.430496554546</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>3765.80574482213</v>
       </c>
     </row>
     <row r="5">
@@ -752,11 +806,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>新能源装机</t>
+          <t>火电装机</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -792,93 +846,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>火电出力</t>
+          <t>新能源装机</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1399</v>
-      </c>
-      <c r="D6" t="n">
-        <v>780</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1139.25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27342</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1180</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1080</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1080</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1080</v>
-      </c>
-      <c r="K6" t="n">
-        <v>930</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1079</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1080</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1080</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1399</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1280</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1230</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1330</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1030</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1230</v>
-      </c>
-      <c r="V6" t="n">
-        <v>830</v>
-      </c>
-      <c r="W6" t="n">
-        <v>780</v>
-      </c>
-      <c r="X6" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1130</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1252</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1280</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1280</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1162</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1180</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -886,11 +886,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>火电装机</t>
+          <t>风电装机</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -926,93 +926,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>电力盈余</t>
+          <t>光伏装机</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1020,92 +966,92 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>线潮L1-0</t>
+          <t>火电出力</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3933.329826515573</v>
+        <v>1399</v>
       </c>
       <c r="D9" t="n">
-        <v>1584.223486837609</v>
+        <v>780</v>
       </c>
       <c r="E9" t="n">
-        <v>2388.306814757295</v>
+        <v>1139.25</v>
       </c>
       <c r="F9" t="n">
-        <v>57319.36355417509</v>
+        <v>27342</v>
       </c>
       <c r="G9" t="n">
-        <v>1965.272282811579</v>
+        <v>1180</v>
       </c>
       <c r="H9" t="n">
-        <v>1740.617386161687</v>
+        <v>1080</v>
       </c>
       <c r="I9" t="n">
-        <v>1740.617386161687</v>
+        <v>1080</v>
       </c>
       <c r="J9" t="n">
-        <v>1688.801631113897</v>
+        <v>1080</v>
       </c>
       <c r="K9" t="n">
-        <v>1584.223486837609</v>
+        <v>930</v>
       </c>
       <c r="L9" t="n">
-        <v>1688.82069485905</v>
+        <v>1079</v>
       </c>
       <c r="M9" t="n">
-        <v>1740.369448442776</v>
+        <v>1080</v>
       </c>
       <c r="N9" t="n">
-        <v>1700.328206428062</v>
+        <v>1080</v>
       </c>
       <c r="O9" t="n">
-        <v>2341.929215168867</v>
+        <v>1399</v>
       </c>
       <c r="P9" t="n">
-        <v>2341.224678305317</v>
+        <v>1380</v>
       </c>
       <c r="Q9" t="n">
-        <v>2363.416434870951</v>
+        <v>1280</v>
       </c>
       <c r="R9" t="n">
-        <v>2507.719829969709</v>
+        <v>1230</v>
       </c>
       <c r="S9" t="n">
-        <v>3455.377941565553</v>
+        <v>1330</v>
       </c>
       <c r="T9" t="n">
-        <v>3933.329826515573</v>
+        <v>1030</v>
       </c>
       <c r="U9" t="n">
-        <v>3426.286142622091</v>
+        <v>1230</v>
       </c>
       <c r="V9" t="n">
-        <v>3048.283544458035</v>
+        <v>830</v>
       </c>
       <c r="W9" t="n">
-        <v>3108.410710007037</v>
+        <v>780</v>
       </c>
       <c r="X9" t="n">
-        <v>3322.276134887462</v>
+        <v>980</v>
       </c>
       <c r="Y9" t="n">
-        <v>2864.855559424234</v>
+        <v>1130</v>
       </c>
       <c r="Z9" t="n">
-        <v>2323.976742519248</v>
+        <v>1252</v>
       </c>
       <c r="AA9" t="n">
-        <v>2301.43345880208</v>
+        <v>1280</v>
       </c>
       <c r="AB9" t="n">
-        <v>2249.366091159379</v>
+        <v>1280</v>
       </c>
       <c r="AC9" t="n">
-        <v>1917.15443827163</v>
+        <v>1162</v>
       </c>
       <c r="AD9" t="n">
-        <v>1965.272282811579</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="10">
@@ -1114,92 +1060,92 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>线潮L2-0</t>
+          <t>新能源出力</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6671.916377064831</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
-        <v>3390.249337705422</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4594.322296677216</v>
+        <v>23.45833333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>110263.7351202532</v>
+        <v>563</v>
       </c>
       <c r="G10" t="n">
-        <v>3765.80574482213</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3390.249337705422</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3390.249337705422</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3422.563577191529</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
-        <v>3659.229805090431</v>
+        <v>75</v>
       </c>
       <c r="L10" t="n">
-        <v>3421.043608333913</v>
+        <v>15</v>
       </c>
       <c r="M10" t="n">
-        <v>3390.497578948704</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3418.540244386181</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>4559.612774418073</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>4582.833618826698</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4659.728781975728</v>
+        <v>39</v>
       </c>
       <c r="R10" t="n">
-        <v>4615.944680558543</v>
+        <v>22</v>
       </c>
       <c r="S10" t="n">
-        <v>5502.082636744964</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>5474.073103916473</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>5681.322754500565</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6660.038720151549</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6671.916377064831</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>6052.567052508494</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="n">
-        <v>6219.013726945145</v>
+        <v>116</v>
       </c>
       <c r="Z10" t="n">
-        <v>4714.185066419313</v>
+        <v>57</v>
       </c>
       <c r="AA10" t="n">
-        <v>4699.217625582192</v>
+        <v>54</v>
       </c>
       <c r="AB10" t="n">
-        <v>4731.782725080174</v>
+        <v>67</v>
       </c>
       <c r="AC10" t="n">
-        <v>3815.430496554546</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>3765.80574482213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1208,92 +1154,92 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>负荷</t>
+          <t>输电线功率</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5816.666666666667</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>139600</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1302,7 +1248,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>输电线功率</t>
+          <t>电力盈余</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1396,39 +1342,93 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>风电装机</t>
+          <t>新能源弃电</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>900</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1436,39 +1436,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>光伏装机</t>
+          <t>负荷</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>630</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1476,92 +1530,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>新能源出力</t>
+          <t>线潮L1-0</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>270</v>
+        <v>3933.329826515573</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1584.223486837609</v>
       </c>
       <c r="E15" t="n">
-        <v>36.33333333333334</v>
+        <v>2388.306814757295</v>
       </c>
       <c r="F15" t="n">
-        <v>872</v>
+        <v>57319.36355417509</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1965.272282811579</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1740.617386161687</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1740.617386161687</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1688.801631113897</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1584.223486837609</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1688.82069485905</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1740.369448442776</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1700.328206428062</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2341.929215168867</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2341.224678305317</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2363.416434870951</v>
       </c>
       <c r="R15" t="n">
-        <v>11</v>
+        <v>2507.719829969709</v>
       </c>
       <c r="S15" t="n">
-        <v>22</v>
+        <v>3455.377941565553</v>
       </c>
       <c r="T15" t="n">
-        <v>47</v>
+        <v>3933.329826515573</v>
       </c>
       <c r="U15" t="n">
-        <v>68</v>
+        <v>3426.286142622091</v>
       </c>
       <c r="V15" t="n">
-        <v>270</v>
+        <v>3048.283544458035</v>
       </c>
       <c r="W15" t="n">
-        <v>268</v>
+        <v>3108.410710007037</v>
       </c>
       <c r="X15" t="n">
-        <v>98</v>
+        <v>3322.276134887462</v>
       </c>
       <c r="Y15" t="n">
-        <v>82</v>
+        <v>2864.855559424234</v>
       </c>
       <c r="Z15" t="n">
-        <v>3</v>
+        <v>2323.976742519248</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2301.43345880208</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>2249.366091159379</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1917.15443827163</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1965.272282811579</v>
       </c>
     </row>
     <row r="16">
@@ -1570,92 +1624,92 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>新能源弃电</t>
+          <t>线潮L3-1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>953.3621261717125</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>259.5009255422831</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>446.5706101999465</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10717.69464479872</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>285.6154772002222</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>259.5638608988647</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>259.5638608988647</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>270.7942510130297</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>298.4368517193279</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>270.7515164687487</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>259.5009255422831</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>267.9576285951186</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>363.3262213582583</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>363.8609976205324</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>376.1383566715836</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>436.9707666440013</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>700.1887905589269</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>953.3621261717125</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>718.5724959580872</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>727.6708796971016</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>770.2331635620669</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>796.681101368196</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>629.2873253080621</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>391.6073192267972</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>361.1877929455188</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>372.3561336236491</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>298.4513245475391</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>285.6154772002222</v>
       </c>
     </row>
     <row r="17">
@@ -1664,11 +1718,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新能源装机</t>
+          <t>火电装机</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -1704,93 +1758,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>火电出力</t>
+          <t>新能源装机</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>900</v>
-      </c>
-      <c r="D18" t="n">
-        <v>390</v>
-      </c>
-      <c r="E18" t="n">
-        <v>725.9166666666666</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17422</v>
-      </c>
-      <c r="G18" t="n">
-        <v>790</v>
-      </c>
-      <c r="H18" t="n">
-        <v>690</v>
-      </c>
-      <c r="I18" t="n">
-        <v>690</v>
-      </c>
-      <c r="J18" t="n">
-        <v>640</v>
-      </c>
-      <c r="K18" t="n">
-        <v>540</v>
-      </c>
-      <c r="L18" t="n">
-        <v>640</v>
-      </c>
-      <c r="M18" t="n">
-        <v>690</v>
-      </c>
-      <c r="N18" t="n">
-        <v>652</v>
-      </c>
-      <c r="O18" t="n">
-        <v>900</v>
-      </c>
-      <c r="P18" t="n">
-        <v>900</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>890</v>
-      </c>
-      <c r="R18" t="n">
-        <v>840</v>
-      </c>
-      <c r="S18" t="n">
-        <v>900</v>
-      </c>
-      <c r="T18" t="n">
-        <v>640</v>
-      </c>
-      <c r="U18" t="n">
-        <v>812</v>
-      </c>
-      <c r="V18" t="n">
-        <v>438</v>
-      </c>
-      <c r="W18" t="n">
-        <v>390</v>
-      </c>
-      <c r="X18" t="n">
-        <v>590</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>690</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>840</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>890</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>840</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>740</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>790</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1798,11 +1798,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>火电装机</t>
+          <t>风电装机</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1838,93 +1838,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>电力盈余</t>
+          <t>光伏装机</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1932,92 +1878,92 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>线潮L1-0</t>
+          <t>火电出力</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3933.329826515573</v>
+        <v>900</v>
       </c>
       <c r="D21" t="n">
-        <v>1584.223486837609</v>
+        <v>390</v>
       </c>
       <c r="E21" t="n">
-        <v>2388.306814757295</v>
+        <v>725.9166666666666</v>
       </c>
       <c r="F21" t="n">
-        <v>57319.36355417509</v>
+        <v>17422</v>
       </c>
       <c r="G21" t="n">
-        <v>1965.272282811579</v>
+        <v>790</v>
       </c>
       <c r="H21" t="n">
-        <v>1740.617386161687</v>
+        <v>690</v>
       </c>
       <c r="I21" t="n">
-        <v>1740.617386161687</v>
+        <v>690</v>
       </c>
       <c r="J21" t="n">
-        <v>1688.801631113897</v>
+        <v>640</v>
       </c>
       <c r="K21" t="n">
-        <v>1584.223486837609</v>
+        <v>540</v>
       </c>
       <c r="L21" t="n">
-        <v>1688.82069485905</v>
+        <v>640</v>
       </c>
       <c r="M21" t="n">
-        <v>1740.369448442776</v>
+        <v>690</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.328206428062</v>
+        <v>652</v>
       </c>
       <c r="O21" t="n">
-        <v>2341.929215168867</v>
+        <v>900</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.224678305317</v>
+        <v>900</v>
       </c>
       <c r="Q21" t="n">
-        <v>2363.416434870951</v>
+        <v>890</v>
       </c>
       <c r="R21" t="n">
-        <v>2507.719829969709</v>
+        <v>840</v>
       </c>
       <c r="S21" t="n">
-        <v>3455.377941565553</v>
+        <v>900</v>
       </c>
       <c r="T21" t="n">
-        <v>3933.329826515573</v>
+        <v>640</v>
       </c>
       <c r="U21" t="n">
-        <v>3426.286142622091</v>
+        <v>812</v>
       </c>
       <c r="V21" t="n">
-        <v>3048.283544458035</v>
+        <v>438</v>
       </c>
       <c r="W21" t="n">
-        <v>3108.410710007037</v>
+        <v>390</v>
       </c>
       <c r="X21" t="n">
-        <v>3322.276134887462</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
-        <v>2864.855559424234</v>
+        <v>690</v>
       </c>
       <c r="Z21" t="n">
-        <v>2323.976742519248</v>
+        <v>840</v>
       </c>
       <c r="AA21" t="n">
-        <v>2301.43345880208</v>
+        <v>890</v>
       </c>
       <c r="AB21" t="n">
-        <v>2249.366091159379</v>
+        <v>840</v>
       </c>
       <c r="AC21" t="n">
-        <v>1917.15443827163</v>
+        <v>740</v>
       </c>
       <c r="AD21" t="n">
-        <v>1965.272282811579</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22">
@@ -2026,92 +1972,92 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>线潮L3-1</t>
+          <t>新能源出力</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>953.3621261717125</v>
+        <v>270</v>
       </c>
       <c r="D22" t="n">
-        <v>259.5009255422831</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>446.5706101999465</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="F22" t="n">
-        <v>10717.69464479872</v>
+        <v>872</v>
       </c>
       <c r="G22" t="n">
-        <v>285.6154772002222</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>259.5638608988647</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>259.5638608988647</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>270.7942510130297</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>298.4368517193279</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>270.7515164687487</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>259.5009255422831</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>267.9576285951186</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>363.3262213582583</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>363.8609976205324</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>376.1383566715836</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>436.9707666440013</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>700.1887905589269</v>
+        <v>22</v>
       </c>
       <c r="T22" t="n">
-        <v>953.3621261717125</v>
+        <v>47</v>
       </c>
       <c r="U22" t="n">
-        <v>718.5724959580872</v>
+        <v>68</v>
       </c>
       <c r="V22" t="n">
-        <v>727.6708796971016</v>
+        <v>270</v>
       </c>
       <c r="W22" t="n">
-        <v>770.2331635620669</v>
+        <v>268</v>
       </c>
       <c r="X22" t="n">
-        <v>796.681101368196</v>
+        <v>98</v>
       </c>
       <c r="Y22" t="n">
-        <v>629.2873253080621</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="n">
-        <v>391.6073192267972</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>361.1877929455188</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>372.3561336236491</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>298.4513245475391</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>285.6154772002222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2120,7 +2066,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>负荷</t>
+          <t>输电线功率</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2214,7 +2160,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>输电线功率</t>
+          <t>电力盈余</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2308,39 +2254,93 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>风电装机</t>
+          <t>新能源弃电</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2348,39 +2348,93 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>光伏装机</t>
+          <t>负荷</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5320</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2388,92 +2442,92 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新能源出力</t>
+          <t>线潮L2-0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2283</v>
+        <v>6671.916377064831</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3390.249337705422</v>
       </c>
       <c r="E27" t="n">
-        <v>475.2083333333333</v>
+        <v>4594.322296677216</v>
       </c>
       <c r="F27" t="n">
-        <v>11405</v>
+        <v>110263.7351202532</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3765.80574482213</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3390.249337705422</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3390.249337705422</v>
       </c>
       <c r="J27" t="n">
-        <v>94</v>
+        <v>3422.563577191529</v>
       </c>
       <c r="K27" t="n">
-        <v>536</v>
+        <v>3659.229805090431</v>
       </c>
       <c r="L27" t="n">
-        <v>108</v>
+        <v>3421.043608333913</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3390.497578948704</v>
       </c>
       <c r="N27" t="n">
-        <v>60</v>
+        <v>3418.540244386181</v>
       </c>
       <c r="O27" t="n">
-        <v>9</v>
+        <v>4559.612774418073</v>
       </c>
       <c r="P27" t="n">
-        <v>36</v>
+        <v>4582.833618826698</v>
       </c>
       <c r="Q27" t="n">
-        <v>302</v>
+        <v>4659.728781975728</v>
       </c>
       <c r="R27" t="n">
-        <v>256</v>
+        <v>4615.944680558543</v>
       </c>
       <c r="S27" t="n">
-        <v>189</v>
+        <v>5502.082636744964</v>
       </c>
       <c r="T27" t="n">
-        <v>399</v>
+        <v>5474.073103916473</v>
       </c>
       <c r="U27" t="n">
-        <v>571</v>
+        <v>5681.322754500565</v>
       </c>
       <c r="V27" t="n">
-        <v>2283</v>
+        <v>6660.038720151549</v>
       </c>
       <c r="W27" t="n">
-        <v>2279</v>
+        <v>6671.916377064831</v>
       </c>
       <c r="X27" t="n">
-        <v>1345</v>
+        <v>6052.567052508494</v>
       </c>
       <c r="Y27" t="n">
-        <v>1520</v>
+        <v>6219.013726945145</v>
       </c>
       <c r="Z27" t="n">
-        <v>432</v>
+        <v>4714.185066419313</v>
       </c>
       <c r="AA27" t="n">
-        <v>386</v>
+        <v>4699.217625582192</v>
       </c>
       <c r="AB27" t="n">
-        <v>477</v>
+        <v>4731.782725080174</v>
       </c>
       <c r="AC27" t="n">
-        <v>121</v>
+        <v>3815.430496554546</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>3765.80574482213</v>
       </c>
     </row>
     <row r="28">
@@ -2482,92 +2536,92 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>新能源弃电</t>
+          <t>线潮L4-2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1123.92342766223</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>446.1150341051635</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>696.209661587951</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>16709.03187811083</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>639.4613865811631</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>565.4973518572799</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>565.4973518572799</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>542.264421044851</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>446.1150341051635</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>543.3072350137987</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>564.5601954639477</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>542.1011573434376</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>792.2859691341004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>785.7513370301177</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>726.977751425913</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>768.6714474608318</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1064.581262927113</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1123.92342766223</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>976.197179275283</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>597.0604333139121</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>630.5166938531203</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>821.0931757694411</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>689.9143801335366</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>701.5069580201374</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>693.9175288267268</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>671.7456349737123</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>616.6231784565643</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>639.4613865811631</v>
       </c>
     </row>
     <row r="29">
@@ -2576,11 +2630,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>新能源装机</t>
+          <t>火电装机</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11770</v>
+        <v>1800</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -2616,93 +2670,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>火电出力</t>
+          <t>新能源装机</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1380</v>
-      </c>
-      <c r="D30" t="n">
-        <v>780</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1131.208333333333</v>
-      </c>
-      <c r="F30" t="n">
-        <v>27149</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1180</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1080</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1080</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1047</v>
-      </c>
-      <c r="K30" t="n">
-        <v>930</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1030</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1080</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1080</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1380</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1280</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1230</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1330</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1030</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1230</v>
-      </c>
-      <c r="V30" t="n">
-        <v>830</v>
-      </c>
-      <c r="W30" t="n">
-        <v>780</v>
-      </c>
-      <c r="X30" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1124</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1230</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1280</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1248</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1130</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1180</v>
-      </c>
+        <v>11770</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2710,11 +2710,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>火电装机</t>
+          <t>风电装机</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1800</v>
+        <v>6450</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -2750,93 +2750,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>电力盈余</t>
+          <t>光伏装机</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
+        <v>5320</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2844,92 +2790,92 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>线潮L2-0</t>
+          <t>火电出力</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6671.916377064831</v>
+        <v>1380</v>
       </c>
       <c r="D33" t="n">
-        <v>3390.249337705422</v>
+        <v>780</v>
       </c>
       <c r="E33" t="n">
-        <v>4594.322296677216</v>
+        <v>1131.208333333333</v>
       </c>
       <c r="F33" t="n">
-        <v>110263.7351202532</v>
+        <v>27149</v>
       </c>
       <c r="G33" t="n">
-        <v>3765.80574482213</v>
+        <v>1180</v>
       </c>
       <c r="H33" t="n">
-        <v>3390.249337705422</v>
+        <v>1080</v>
       </c>
       <c r="I33" t="n">
-        <v>3390.249337705422</v>
+        <v>1080</v>
       </c>
       <c r="J33" t="n">
-        <v>3422.563577191529</v>
+        <v>1047</v>
       </c>
       <c r="K33" t="n">
-        <v>3659.229805090431</v>
+        <v>930</v>
       </c>
       <c r="L33" t="n">
-        <v>3421.043608333913</v>
+        <v>1030</v>
       </c>
       <c r="M33" t="n">
-        <v>3390.497578948704</v>
+        <v>1080</v>
       </c>
       <c r="N33" t="n">
-        <v>3418.540244386181</v>
+        <v>1080</v>
       </c>
       <c r="O33" t="n">
-        <v>4559.612774418073</v>
+        <v>1380</v>
       </c>
       <c r="P33" t="n">
-        <v>4582.833618826698</v>
+        <v>1380</v>
       </c>
       <c r="Q33" t="n">
-        <v>4659.728781975728</v>
+        <v>1280</v>
       </c>
       <c r="R33" t="n">
-        <v>4615.944680558543</v>
+        <v>1230</v>
       </c>
       <c r="S33" t="n">
-        <v>5502.082636744964</v>
+        <v>1330</v>
       </c>
       <c r="T33" t="n">
-        <v>5474.073103916473</v>
+        <v>1030</v>
       </c>
       <c r="U33" t="n">
-        <v>5681.322754500565</v>
+        <v>1230</v>
       </c>
       <c r="V33" t="n">
-        <v>6660.038720151549</v>
+        <v>830</v>
       </c>
       <c r="W33" t="n">
-        <v>6671.916377064831</v>
+        <v>780</v>
       </c>
       <c r="X33" t="n">
-        <v>6052.567052508494</v>
+        <v>980</v>
       </c>
       <c r="Y33" t="n">
-        <v>6219.013726945145</v>
+        <v>1124</v>
       </c>
       <c r="Z33" t="n">
-        <v>4714.185066419313</v>
+        <v>1230</v>
       </c>
       <c r="AA33" t="n">
-        <v>4699.217625582192</v>
+        <v>1280</v>
       </c>
       <c r="AB33" t="n">
-        <v>4731.782725080174</v>
+        <v>1248</v>
       </c>
       <c r="AC33" t="n">
-        <v>3815.430496554546</v>
+        <v>1130</v>
       </c>
       <c r="AD33" t="n">
-        <v>3765.80574482213</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="34">
@@ -2938,92 +2884,92 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>线潮L4-2</t>
+          <t>新能源出力</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1123.92342766223</v>
+        <v>2283</v>
       </c>
       <c r="D34" t="n">
-        <v>446.1150341051635</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>696.209661587951</v>
+        <v>475.2083333333333</v>
       </c>
       <c r="F34" t="n">
-        <v>16709.03187811083</v>
+        <v>11405</v>
       </c>
       <c r="G34" t="n">
-        <v>639.4613865811631</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>565.4973518572799</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>565.4973518572799</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>542.264421044851</v>
+        <v>94</v>
       </c>
       <c r="K34" t="n">
-        <v>446.1150341051635</v>
+        <v>536</v>
       </c>
       <c r="L34" t="n">
-        <v>543.3072350137987</v>
+        <v>108</v>
       </c>
       <c r="M34" t="n">
-        <v>564.5601954639477</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
-        <v>542.1011573434376</v>
+        <v>60</v>
       </c>
       <c r="O34" t="n">
-        <v>792.2859691341004</v>
+        <v>9</v>
       </c>
       <c r="P34" t="n">
-        <v>785.7513370301177</v>
+        <v>36</v>
       </c>
       <c r="Q34" t="n">
-        <v>726.977751425913</v>
+        <v>302</v>
       </c>
       <c r="R34" t="n">
-        <v>768.6714474608318</v>
+        <v>256</v>
       </c>
       <c r="S34" t="n">
-        <v>1064.581262927113</v>
+        <v>189</v>
       </c>
       <c r="T34" t="n">
-        <v>1123.92342766223</v>
+        <v>399</v>
       </c>
       <c r="U34" t="n">
-        <v>976.197179275283</v>
+        <v>571</v>
       </c>
       <c r="V34" t="n">
-        <v>597.0604333139121</v>
+        <v>2283</v>
       </c>
       <c r="W34" t="n">
-        <v>630.5166938531203</v>
+        <v>2279</v>
       </c>
       <c r="X34" t="n">
-        <v>821.0931757694411</v>
+        <v>1345</v>
       </c>
       <c r="Y34" t="n">
-        <v>689.9143801335366</v>
+        <v>1520</v>
       </c>
       <c r="Z34" t="n">
-        <v>701.5069580201374</v>
+        <v>432</v>
       </c>
       <c r="AA34" t="n">
-        <v>693.9175288267268</v>
+        <v>386</v>
       </c>
       <c r="AB34" t="n">
-        <v>671.7456349737123</v>
+        <v>477</v>
       </c>
       <c r="AC34" t="n">
-        <v>616.6231784565643</v>
+        <v>121</v>
       </c>
       <c r="AD34" t="n">
-        <v>639.4613865811631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3032,7 +2978,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>负荷</t>
+          <t>输电线功率</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3126,7 +3072,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>输电线功率</t>
+          <t>电力盈余</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3220,39 +3166,93 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>风电装机</t>
+          <t>新能源弃电</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6450</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3260,39 +3260,93 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>光伏装机</t>
+          <t>负荷</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3300,92 +3354,92 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>新能源出力</t>
+          <t>线潮L3-1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2509</v>
+        <v>953.3621261717125</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>259.5009255422831</v>
       </c>
       <c r="E39" t="n">
-        <v>447.4166666666667</v>
+        <v>446.5706101999465</v>
       </c>
       <c r="F39" t="n">
-        <v>10738</v>
+        <v>10717.69464479872</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>285.6154772002222</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>259.5638608988647</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>259.5638608988647</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>270.7942510130297</v>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>298.4368517193279</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>270.7515164687487</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>259.5009255422831</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>267.9576285951186</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>363.3262213582583</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>363.8609976205324</v>
       </c>
       <c r="Q39" t="n">
-        <v>91</v>
+        <v>376.1383566715836</v>
       </c>
       <c r="R39" t="n">
-        <v>394</v>
+        <v>436.9707666440013</v>
       </c>
       <c r="S39" t="n">
-        <v>1295</v>
+        <v>700.1887905589269</v>
       </c>
       <c r="T39" t="n">
-        <v>2509</v>
+        <v>953.3621261717125</v>
       </c>
       <c r="U39" t="n">
-        <v>1342</v>
+        <v>718.5724959580872</v>
       </c>
       <c r="V39" t="n">
-        <v>1026</v>
+        <v>727.6708796971016</v>
       </c>
       <c r="W39" t="n">
-        <v>1798</v>
+        <v>770.2331635620669</v>
       </c>
       <c r="X39" t="n">
-        <v>1525</v>
+        <v>796.681101368196</v>
       </c>
       <c r="Y39" t="n">
-        <v>634</v>
+        <v>629.2873253080621</v>
       </c>
       <c r="Z39" t="n">
-        <v>107</v>
+        <v>391.6073192267972</v>
       </c>
       <c r="AA39" t="n">
-        <v>4</v>
+        <v>361.1877929455188</v>
       </c>
       <c r="AB39" t="n">
-        <v>4</v>
+        <v>372.3561336236491</v>
       </c>
       <c r="AC39" t="n">
-        <v>1</v>
+        <v>298.4513245475391</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>285.6154772002222</v>
       </c>
     </row>
     <row r="40">
@@ -3394,92 +3448,92 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>新能源弃电</t>
+          <t>线潮L5-3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>616</v>
+        <v>370.397321753544</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-301.3648567020145</v>
       </c>
       <c r="E40" t="n">
-        <v>25.66666666666667</v>
+        <v>235.6819149313842</v>
       </c>
       <c r="F40" t="n">
-        <v>616</v>
+        <v>5656.365958353222</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>285.640123544861</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>259.5842177946851</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>259.5842177946851</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>270.3162803827623</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>295.9630862147581</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>270.2735388694302</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>259.5212725692615</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>267.4791968847728</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>363.3660978778709</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>363.9009916107068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>330.665646672777</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>239.9626346698667</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>52.58105044827705</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-301.3648567020145</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>47.45971132635727</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>214.5972776277238</v>
       </c>
       <c r="W40" t="n">
-        <v>616</v>
+        <v>179.1409420568352</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>34.05123534804228</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>312.2661023496531</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>338.1351338055343</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>359.2265172330626</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>370.397321753544</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>297.978094674909</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>285.640123544861</v>
       </c>
     </row>
     <row r="41">
@@ -3488,11 +3542,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>新能源装机</t>
+          <t>火电装机</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6060</v>
+        <v>900</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
@@ -3528,93 +3582,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>火电出力</t>
+          <t>新能源装机</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
+        <v>6060</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3622,11 +3622,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>火电装机</t>
+          <t>风电装机</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>900</v>
+        <v>60</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
@@ -3662,93 +3662,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>电力盈余</t>
+          <t>光伏装机</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>616</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>25.66666666666667</v>
-      </c>
-      <c r="F44" t="n">
-        <v>616</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>616</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3756,92 +3702,92 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>线潮L3-1</t>
+          <t>火电出力</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>953.3621261717125</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>259.5009255422831</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>446.5706101999465</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>10717.69464479872</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>285.6154772002222</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>259.5638608988647</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>259.5638608988647</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>270.7942510130297</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>298.4368517193279</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>270.7515164687487</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>259.5009255422831</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>267.9576285951186</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>363.3262213582583</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>363.8609976205324</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>376.1383566715836</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>436.9707666440013</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>700.1887905589269</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>953.3621261717125</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>718.5724959580872</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>727.6708796971016</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>770.2331635620669</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>796.681101368196</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>629.2873253080621</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>391.6073192267972</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>361.1877929455188</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>372.3561336236491</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>298.4513245475391</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>285.6154772002222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3850,92 +3796,92 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>线潮L5-3</t>
+          <t>新能源出力</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>370.397321753544</v>
+        <v>2509</v>
       </c>
       <c r="D46" t="n">
-        <v>-301.3648567020145</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>235.6819149313842</v>
+        <v>447.4166666666667</v>
       </c>
       <c r="F46" t="n">
-        <v>5656.365958353222</v>
+        <v>10738</v>
       </c>
       <c r="G46" t="n">
-        <v>285.640123544861</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>259.5842177946851</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>259.5842177946851</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>270.3162803827623</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>295.9630862147581</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>270.2735388694302</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>259.5212725692615</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>267.4791968847728</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>363.3660978778709</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>363.9009916107068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.665646672777</v>
+        <v>91</v>
       </c>
       <c r="R46" t="n">
-        <v>239.9626346698667</v>
+        <v>394</v>
       </c>
       <c r="S46" t="n">
-        <v>52.58105044827705</v>
+        <v>1295</v>
       </c>
       <c r="T46" t="n">
-        <v>-301.3648567020145</v>
+        <v>2509</v>
       </c>
       <c r="U46" t="n">
-        <v>47.45971132635727</v>
+        <v>1342</v>
       </c>
       <c r="V46" t="n">
-        <v>214.5972776277238</v>
+        <v>1026</v>
       </c>
       <c r="W46" t="n">
-        <v>179.1409420568352</v>
+        <v>1798</v>
       </c>
       <c r="X46" t="n">
-        <v>34.05123534804228</v>
+        <v>1525</v>
       </c>
       <c r="Y46" t="n">
-        <v>312.2661023496531</v>
+        <v>634</v>
       </c>
       <c r="Z46" t="n">
-        <v>338.1351338055343</v>
+        <v>107</v>
       </c>
       <c r="AA46" t="n">
-        <v>359.2265172330626</v>
+        <v>4</v>
       </c>
       <c r="AB46" t="n">
-        <v>370.397321753544</v>
+        <v>4</v>
       </c>
       <c r="AC46" t="n">
-        <v>297.978094674909</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
-        <v>285.640123544861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3944,7 +3890,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>负荷</t>
+          <t>输电线功率</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4038,20 +3984,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>输电线功率</t>
+          <t>电力盈余</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4102,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -4132,39 +4078,93 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>风电装机</t>
+          <t>新能源弃电</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>60</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
+        <v>616</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>616</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>616</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4172,39 +4172,93 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>光伏装机</t>
+          <t>负荷</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1170</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4212,92 +4266,92 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>新能源出力</t>
+          <t>线潮L4-2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>502</v>
+        <v>1123.92342766223</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>446.1150341051635</v>
       </c>
       <c r="E51" t="n">
-        <v>93.625</v>
+        <v>696.209661587951</v>
       </c>
       <c r="F51" t="n">
-        <v>2247</v>
+        <v>16709.03187811083</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>639.4613865811631</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>565.4973518572799</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>565.4973518572799</v>
       </c>
       <c r="J51" t="n">
-        <v>15</v>
+        <v>542.264421044851</v>
       </c>
       <c r="K51" t="n">
-        <v>83</v>
+        <v>446.1150341051635</v>
       </c>
       <c r="L51" t="n">
-        <v>17</v>
+        <v>543.3072350137987</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>564.5601954639477</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>542.1011573434376</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>792.2859691341004</v>
       </c>
       <c r="P51" t="n">
-        <v>6</v>
+        <v>785.7513370301177</v>
       </c>
       <c r="Q51" t="n">
-        <v>49</v>
+        <v>726.977751425913</v>
       </c>
       <c r="R51" t="n">
-        <v>46</v>
+        <v>768.6714474608318</v>
       </c>
       <c r="S51" t="n">
-        <v>42</v>
+        <v>1064.581262927113</v>
       </c>
       <c r="T51" t="n">
-        <v>88</v>
+        <v>1123.92342766223</v>
       </c>
       <c r="U51" t="n">
-        <v>126</v>
+        <v>976.197179275283</v>
       </c>
       <c r="V51" t="n">
-        <v>502</v>
+        <v>597.0604333139121</v>
       </c>
       <c r="W51" t="n">
-        <v>500</v>
+        <v>630.5166938531203</v>
       </c>
       <c r="X51" t="n">
-        <v>262</v>
+        <v>821.0931757694411</v>
       </c>
       <c r="Y51" t="n">
-        <v>280</v>
+        <v>689.9143801335366</v>
       </c>
       <c r="Z51" t="n">
-        <v>68</v>
+        <v>701.5069580201374</v>
       </c>
       <c r="AA51" t="n">
-        <v>60</v>
+        <v>693.9175288267268</v>
       </c>
       <c r="AB51" t="n">
-        <v>74</v>
+        <v>671.7456349737123</v>
       </c>
       <c r="AC51" t="n">
-        <v>19</v>
+        <v>616.6231784565643</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>639.4613865811631</v>
       </c>
     </row>
     <row r="52">
@@ -4306,92 +4360,92 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>新能源弃电</t>
+          <t>线潮L5-4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>649.3990654002589</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>14.56868627391676</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>165.8914913370357</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>3981.395792088856</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>129.4057193062275</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>105.451922889666</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>105.451922889666</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>94.71981954122448</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>14.56868627391676</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>94.76254935594599</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>105.5148686538762</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>97.55693671858199</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>176.7057990350706</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>167.6700303895069</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>137.3978166302776</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>205.5983531003856</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>453.505129886723</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>649.3990654002589</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>398.1176638167502</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>30.94904094307589</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>65.40547544069727</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>290.0070761094202</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>84.80395583226051</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>127.4282464661485</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>105.8364858090375</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>94.6656300280515</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>117.0678782658593</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>129.4057193062275</v>
       </c>
     </row>
     <row r="53">
@@ -4400,11 +4454,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>新能源装机</t>
+          <t>火电装机</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2170</v>
+        <v>1500</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
@@ -4440,93 +4494,39 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>火电出力</t>
+          <t>新能源装机</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1230</v>
-      </c>
-      <c r="D54" t="n">
-        <v>630</v>
-      </c>
-      <c r="E54" t="n">
-        <v>966.875</v>
-      </c>
-      <c r="F54" t="n">
-        <v>23205</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1020</v>
-      </c>
-      <c r="H54" t="n">
-        <v>920</v>
-      </c>
-      <c r="I54" t="n">
-        <v>920</v>
-      </c>
-      <c r="J54" t="n">
-        <v>880</v>
-      </c>
-      <c r="K54" t="n">
-        <v>780</v>
-      </c>
-      <c r="L54" t="n">
-        <v>880</v>
-      </c>
-      <c r="M54" t="n">
-        <v>918</v>
-      </c>
-      <c r="N54" t="n">
-        <v>880</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1230</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1230</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1130</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1080</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1180</v>
-      </c>
-      <c r="T54" t="n">
-        <v>861</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1030</v>
-      </c>
-      <c r="V54" t="n">
-        <v>630</v>
-      </c>
-      <c r="W54" t="n">
-        <v>630</v>
-      </c>
-      <c r="X54" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>930</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1080</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1116</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1080</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>980</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1020</v>
-      </c>
+        <v>2170</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4534,11 +4534,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>火电装机</t>
+          <t>风电装机</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
@@ -4574,93 +4574,39 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>电力盈余</t>
+          <t>光伏装机</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
+        <v>1170</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4668,92 +4614,92 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>线潮L4-2</t>
+          <t>火电出力</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1123.92342766223</v>
+        <v>1230</v>
       </c>
       <c r="D57" t="n">
-        <v>446.1150341051635</v>
+        <v>630</v>
       </c>
       <c r="E57" t="n">
-        <v>696.209661587951</v>
+        <v>966.875</v>
       </c>
       <c r="F57" t="n">
-        <v>16709.03187811083</v>
+        <v>23205</v>
       </c>
       <c r="G57" t="n">
-        <v>639.4613865811631</v>
+        <v>1020</v>
       </c>
       <c r="H57" t="n">
-        <v>565.4973518572799</v>
+        <v>920</v>
       </c>
       <c r="I57" t="n">
-        <v>565.4973518572799</v>
+        <v>920</v>
       </c>
       <c r="J57" t="n">
-        <v>542.264421044851</v>
+        <v>880</v>
       </c>
       <c r="K57" t="n">
-        <v>446.1150341051635</v>
+        <v>780</v>
       </c>
       <c r="L57" t="n">
-        <v>543.3072350137987</v>
+        <v>880</v>
       </c>
       <c r="M57" t="n">
-        <v>564.5601954639477</v>
+        <v>918</v>
       </c>
       <c r="N57" t="n">
-        <v>542.1011573434376</v>
+        <v>880</v>
       </c>
       <c r="O57" t="n">
-        <v>792.2859691341004</v>
+        <v>1230</v>
       </c>
       <c r="P57" t="n">
-        <v>785.7513370301177</v>
+        <v>1230</v>
       </c>
       <c r="Q57" t="n">
-        <v>726.977751425913</v>
+        <v>1130</v>
       </c>
       <c r="R57" t="n">
-        <v>768.6714474608318</v>
+        <v>1080</v>
       </c>
       <c r="S57" t="n">
-        <v>1064.581262927113</v>
+        <v>1180</v>
       </c>
       <c r="T57" t="n">
-        <v>1123.92342766223</v>
+        <v>861</v>
       </c>
       <c r="U57" t="n">
-        <v>976.197179275283</v>
+        <v>1030</v>
       </c>
       <c r="V57" t="n">
-        <v>597.0604333139121</v>
+        <v>630</v>
       </c>
       <c r="W57" t="n">
-        <v>630.5166938531203</v>
+        <v>630</v>
       </c>
       <c r="X57" t="n">
-        <v>821.0931757694411</v>
+        <v>800</v>
       </c>
       <c r="Y57" t="n">
-        <v>689.9143801335366</v>
+        <v>930</v>
       </c>
       <c r="Z57" t="n">
-        <v>701.5069580201374</v>
+        <v>1080</v>
       </c>
       <c r="AA57" t="n">
-        <v>693.9175288267268</v>
+        <v>1116</v>
       </c>
       <c r="AB57" t="n">
-        <v>671.7456349737123</v>
+        <v>1080</v>
       </c>
       <c r="AC57" t="n">
-        <v>616.6231784565643</v>
+        <v>980</v>
       </c>
       <c r="AD57" t="n">
-        <v>639.4613865811631</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="58">
@@ -4762,92 +4708,92 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>线潮L5-4</t>
+          <t>新能源出力</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>649.3990654002589</v>
+        <v>502</v>
       </c>
       <c r="D58" t="n">
-        <v>14.56868627391676</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>165.8914913370357</v>
+        <v>93.625</v>
       </c>
       <c r="F58" t="n">
-        <v>3981.395792088856</v>
+        <v>2247</v>
       </c>
       <c r="G58" t="n">
-        <v>129.4057193062275</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>105.451922889666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>105.451922889666</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>94.71981954122448</v>
+        <v>15</v>
       </c>
       <c r="K58" t="n">
-        <v>14.56868627391676</v>
+        <v>83</v>
       </c>
       <c r="L58" t="n">
-        <v>94.76254935594599</v>
+        <v>17</v>
       </c>
       <c r="M58" t="n">
-        <v>105.5148686538762</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>97.55693671858199</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>176.7057990350706</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>167.6700303895069</v>
+        <v>6</v>
       </c>
       <c r="Q58" t="n">
-        <v>137.3978166302776</v>
+        <v>49</v>
       </c>
       <c r="R58" t="n">
-        <v>205.5983531003856</v>
+        <v>46</v>
       </c>
       <c r="S58" t="n">
-        <v>453.505129886723</v>
+        <v>42</v>
       </c>
       <c r="T58" t="n">
-        <v>649.3990654002589</v>
+        <v>88</v>
       </c>
       <c r="U58" t="n">
-        <v>398.1176638167502</v>
+        <v>126</v>
       </c>
       <c r="V58" t="n">
-        <v>30.94904094307589</v>
+        <v>502</v>
       </c>
       <c r="W58" t="n">
-        <v>65.40547544069727</v>
+        <v>500</v>
       </c>
       <c r="X58" t="n">
-        <v>290.0070761094202</v>
+        <v>262</v>
       </c>
       <c r="Y58" t="n">
-        <v>84.80395583226051</v>
+        <v>280</v>
       </c>
       <c r="Z58" t="n">
-        <v>127.4282464661485</v>
+        <v>68</v>
       </c>
       <c r="AA58" t="n">
-        <v>105.8364858090375</v>
+        <v>60</v>
       </c>
       <c r="AB58" t="n">
-        <v>94.6656300280515</v>
+        <v>74</v>
       </c>
       <c r="AC58" t="n">
-        <v>117.0678782658593</v>
+        <v>19</v>
       </c>
       <c r="AD58" t="n">
-        <v>129.4057193062275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4856,7 +4802,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>负荷</t>
+          <t>输电线功率</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -4950,7 +4896,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>输电线功率</t>
+          <t>电力盈余</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -5044,39 +4990,93 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>风电装机</t>
+          <t>新能源弃电</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5084,39 +5084,93 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>光伏装机</t>
+          <t>负荷</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>170</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5124,92 +5178,92 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>新能源出力</t>
+          <t>线潮L5-3</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>370.397321753544</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-301.3648567020145</v>
       </c>
       <c r="E63" t="n">
-        <v>3.958333333333333</v>
+        <v>235.6819149313842</v>
       </c>
       <c r="F63" t="n">
-        <v>95</v>
+        <v>5656.365958353222</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>285.640123544861</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>259.5842177946851</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>259.5842177946851</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>270.3162803827623</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>295.9630862147581</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>270.2735388694302</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>259.5212725692615</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>267.4791968847728</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>363.3660978778709</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>363.9009916107068</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>330.665646672777</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>239.9626346698667</v>
       </c>
       <c r="S63" t="n">
-        <v>9</v>
+        <v>52.58105044827705</v>
       </c>
       <c r="T63" t="n">
-        <v>16</v>
+        <v>-301.3648567020145</v>
       </c>
       <c r="U63" t="n">
-        <v>11</v>
+        <v>47.45971132635727</v>
       </c>
       <c r="V63" t="n">
-        <v>11</v>
+        <v>214.5972776277238</v>
       </c>
       <c r="W63" t="n">
-        <v>9</v>
+        <v>179.1409420568352</v>
       </c>
       <c r="X63" t="n">
-        <v>18</v>
+        <v>34.05123534804228</v>
       </c>
       <c r="Y63" t="n">
-        <v>14</v>
+        <v>312.2661023496531</v>
       </c>
       <c r="Z63" t="n">
-        <v>1</v>
+        <v>338.1351338055343</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
+        <v>359.2265172330626</v>
       </c>
       <c r="AB63" t="n">
-        <v>0</v>
+        <v>370.397321753544</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>297.978094674909</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>285.640123544861</v>
       </c>
     </row>
     <row r="64">
@@ -5218,92 +5272,92 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>新能源弃电</t>
+          <t>线潮L5-4</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>649.3990654002589</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>14.56868627391676</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>165.8914913370357</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3981.395792088856</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>129.4057193062275</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>105.451922889666</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>105.451922889666</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>94.71981954122448</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>14.56868627391676</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>94.76254935594599</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>105.5148686538762</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>97.55693671858199</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>176.7057990350706</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>167.6700303895069</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>137.3978166302776</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>205.5983531003856</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>453.505129886723</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>649.3990654002589</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>398.1176638167502</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>30.94904094307589</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>65.40547544069727</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>290.0070761094202</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
+        <v>84.80395583226051</v>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>127.4282464661485</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
+        <v>105.8364858090375</v>
       </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>94.6656300280515</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>117.0678782658593</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>129.4057193062275</v>
       </c>
     </row>
     <row r="65">
@@ -5312,11 +5366,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>新能源装机</t>
+          <t>火电装机</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>170</v>
+        <v>1500</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
@@ -5352,93 +5406,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>火电出力</t>
+          <t>新能源装机</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1080</v>
-      </c>
-      <c r="D66" t="n">
-        <v>480</v>
-      </c>
-      <c r="E66" t="n">
-        <v>799.0833333333334</v>
-      </c>
-      <c r="F66" t="n">
-        <v>19178</v>
-      </c>
-      <c r="G66" t="n">
-        <v>830</v>
-      </c>
-      <c r="H66" t="n">
-        <v>730</v>
-      </c>
-      <c r="I66" t="n">
-        <v>730</v>
-      </c>
-      <c r="J66" t="n">
-        <v>730</v>
-      </c>
-      <c r="K66" t="n">
-        <v>621</v>
-      </c>
-      <c r="L66" t="n">
-        <v>730</v>
-      </c>
-      <c r="M66" t="n">
-        <v>730</v>
-      </c>
-      <c r="N66" t="n">
-        <v>730</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1080</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1063</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>935</v>
-      </c>
-      <c r="R66" t="n">
-        <v>886</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1003</v>
-      </c>
-      <c r="T66" t="n">
-        <v>680</v>
-      </c>
-      <c r="U66" t="n">
-        <v>880</v>
-      </c>
-      <c r="V66" t="n">
-        <v>480</v>
-      </c>
-      <c r="W66" t="n">
-        <v>480</v>
-      </c>
-      <c r="X66" t="n">
-        <v>630</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>780</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>930</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>930</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>930</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>830</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>830</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5446,11 +5446,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>火电装机</t>
+          <t>风电装机</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
@@ -5486,93 +5486,39 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>电力盈余</t>
+          <t>光伏装机</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5580,92 +5526,92 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>线潮L5-3</t>
+          <t>火电出力</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>370.397321753544</v>
+        <v>1080</v>
       </c>
       <c r="D69" t="n">
-        <v>-301.3648567020145</v>
+        <v>480</v>
       </c>
       <c r="E69" t="n">
-        <v>235.6819149313842</v>
+        <v>799.0833333333334</v>
       </c>
       <c r="F69" t="n">
-        <v>5656.365958353222</v>
+        <v>19178</v>
       </c>
       <c r="G69" t="n">
-        <v>285.640123544861</v>
+        <v>830</v>
       </c>
       <c r="H69" t="n">
-        <v>259.5842177946851</v>
+        <v>730</v>
       </c>
       <c r="I69" t="n">
-        <v>259.5842177946851</v>
+        <v>730</v>
       </c>
       <c r="J69" t="n">
-        <v>270.3162803827623</v>
+        <v>730</v>
       </c>
       <c r="K69" t="n">
-        <v>295.9630862147581</v>
+        <v>621</v>
       </c>
       <c r="L69" t="n">
-        <v>270.2735388694302</v>
+        <v>730</v>
       </c>
       <c r="M69" t="n">
-        <v>259.5212725692615</v>
+        <v>730</v>
       </c>
       <c r="N69" t="n">
-        <v>267.4791968847728</v>
+        <v>730</v>
       </c>
       <c r="O69" t="n">
-        <v>363.3660978778709</v>
+        <v>1080</v>
       </c>
       <c r="P69" t="n">
-        <v>363.9009916107068</v>
+        <v>1063</v>
       </c>
       <c r="Q69" t="n">
-        <v>330.665646672777</v>
+        <v>935</v>
       </c>
       <c r="R69" t="n">
-        <v>239.9626346698667</v>
+        <v>886</v>
       </c>
       <c r="S69" t="n">
-        <v>52.58105044827705</v>
+        <v>1003</v>
       </c>
       <c r="T69" t="n">
-        <v>-301.3648567020145</v>
+        <v>680</v>
       </c>
       <c r="U69" t="n">
-        <v>47.45971132635727</v>
+        <v>880</v>
       </c>
       <c r="V69" t="n">
-        <v>214.5972776277238</v>
+        <v>480</v>
       </c>
       <c r="W69" t="n">
-        <v>179.1409420568352</v>
+        <v>480</v>
       </c>
       <c r="X69" t="n">
-        <v>34.05123534804228</v>
+        <v>630</v>
       </c>
       <c r="Y69" t="n">
-        <v>312.2661023496531</v>
+        <v>780</v>
       </c>
       <c r="Z69" t="n">
-        <v>338.1351338055343</v>
+        <v>930</v>
       </c>
       <c r="AA69" t="n">
-        <v>359.2265172330626</v>
+        <v>930</v>
       </c>
       <c r="AB69" t="n">
-        <v>370.397321753544</v>
+        <v>930</v>
       </c>
       <c r="AC69" t="n">
-        <v>297.978094674909</v>
+        <v>830</v>
       </c>
       <c r="AD69" t="n">
-        <v>285.640123544861</v>
+        <v>830</v>
       </c>
     </row>
     <row r="70">
@@ -5674,92 +5620,92 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>线潮L5-4</t>
+          <t>新能源出力</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>649.3990654002589</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
-        <v>14.56868627391676</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>165.8914913370357</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="F70" t="n">
-        <v>3981.395792088856</v>
+        <v>95</v>
       </c>
       <c r="G70" t="n">
-        <v>129.4057193062275</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>105.451922889666</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>105.451922889666</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>94.71981954122448</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>14.56868627391676</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>94.76254935594599</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>105.5148686538762</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>97.55693671858199</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>176.7057990350706</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>167.6700303895069</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>137.3978166302776</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>205.5983531003856</v>
+        <v>5</v>
       </c>
       <c r="S70" t="n">
-        <v>453.505129886723</v>
+        <v>9</v>
       </c>
       <c r="T70" t="n">
-        <v>649.3990654002589</v>
+        <v>16</v>
       </c>
       <c r="U70" t="n">
-        <v>398.1176638167502</v>
+        <v>11</v>
       </c>
       <c r="V70" t="n">
-        <v>30.94904094307589</v>
+        <v>11</v>
       </c>
       <c r="W70" t="n">
-        <v>65.40547544069727</v>
+        <v>9</v>
       </c>
       <c r="X70" t="n">
-        <v>290.0070761094202</v>
+        <v>18</v>
       </c>
       <c r="Y70" t="n">
-        <v>84.80395583226051</v>
+        <v>14</v>
       </c>
       <c r="Z70" t="n">
-        <v>127.4282464661485</v>
+        <v>1</v>
       </c>
       <c r="AA70" t="n">
-        <v>105.8364858090375</v>
+        <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>94.6656300280515</v>
+        <v>0</v>
       </c>
       <c r="AC70" t="n">
-        <v>117.0678782658593</v>
+        <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>129.4057193062275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -5768,20 +5714,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>负荷</t>
+          <t>输电线功率</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>97.53999999999999</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>4.064166666666666</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>97.53999999999999</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -5832,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>97.53999999999999</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -5862,20 +5808,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>输电线功率</t>
+          <t>电力盈余</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>97.53999999999999</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>4.064166666666666</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>97.53999999999999</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -5926,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>97.53999999999999</v>
+        <v>0</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
@@ -5956,39 +5902,93 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>风电装机</t>
+          <t>新能源弃电</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
